--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_139.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_139.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3382352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(128.54, 133.9)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(46.93228, 55.860352)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2865853658536585</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(131.2, 136.34)]</t>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3882352941176471</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06266149870801033</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['Bb:7', 'Eb:min', 'Eb:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
+          <t>[['A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:06.960000', '0:00:09.200000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:12.260000', '0:00:25.040000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
-        </is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05848214285714286</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['C', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(38.2, 42.24)]</t>
+          <t>[['G/3', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.94, 45.58)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:23.670000', '0:00:25.980000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:01.366439', '0:00:05.255782')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1070693205216198</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A:min', 'B:min']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E:min', 'F#:min']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(52.674489, 58.990317)]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.671853, 22.848361)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:08.899614', '0:00:17.734807'), ('0:00:05.915850', '0:00:14.867142')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1847507331378299</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'G:7/b2'], ['G:7', 'C', 'G:7']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.07, 25.58), (21.5, 24.4)]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(81.014444, 83.626689), (72.272131, 77.519841)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.86, 28.92)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.42, 45.54)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05241128298453139</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Bb:7', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'F:min7']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb'], ['F:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (14.4, 16.43), (102.17, 106.45)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88), (27.25, 29.62), (14.24, 17.77)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[('0:01:02.480000', '0:01:05.220000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_53</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02602239776022398</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.074714631615358</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'D:7', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7', 'C']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(24.03, 28.41)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(115.728276, 127.280204)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1464285714285714</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.767369)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(131.46, 133.42), (127.6, 132.4)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2444444444444444</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C/5', 'F/3', 'G/3', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.976734, 18.678775)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(135.371234, 138.80365)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'G'], ['D', 'G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'F#', 'B', 'B'], ['F#', 'B', 'B', 'E/5']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873), (59.333356, 68.841927)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(52.727278, 61.620521), (54.178526, 63.091379)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(112.14, 114.76)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(27.0, 56.92)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
